--- a/predictions полгода до/Прогнозы_Holt-Winters_AdAd.xlsx
+++ b/predictions полгода до/Прогнозы_Holt-Winters_AdAd.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19841661.95224433</v>
+        <v>20654002.07606246</v>
       </c>
       <c r="C2" t="n">
-        <v>21059860.5022386</v>
+        <v>19870350.5436707</v>
       </c>
       <c r="D2" t="n">
-        <v>20360103.41549318</v>
+        <v>19281570.36245523</v>
       </c>
       <c r="E2" t="n">
-        <v>19855218.05972258</v>
+        <v>20582303.99102603</v>
       </c>
       <c r="F2" t="n">
-        <v>21239845.97053253</v>
+        <v>21109970.1718979</v>
       </c>
       <c r="G2" t="n">
-        <v>21851405.23503936</v>
+        <v>16719343.3654529</v>
       </c>
       <c r="H2" t="n">
-        <v>17626705.70252988</v>
+        <v>19225046.0018923</v>
       </c>
       <c r="I2" t="n">
-        <v>20134272.56813325</v>
+        <v>20805403.89759433</v>
       </c>
       <c r="J2" t="n">
-        <v>21798517.07016578</v>
+        <v>19492946.29314041</v>
       </c>
       <c r="K2" t="n">
-        <v>20569944.0192124</v>
+        <v>18956223.68635317</v>
       </c>
       <c r="L2" t="n">
-        <v>20117104.25885478</v>
+        <v>18353855.47014619</v>
       </c>
       <c r="M2" t="n">
-        <v>19598579.49868661</v>
+        <v>18517518.12087579</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10697048.03227182</v>
+        <v>9708070.462423606</v>
       </c>
       <c r="C3" t="n">
-        <v>11606120.52526844</v>
+        <v>10508136.14677363</v>
       </c>
       <c r="D3" t="n">
-        <v>12780237.34529291</v>
+        <v>11264875.77627091</v>
       </c>
       <c r="E3" t="n">
-        <v>13911029.37209302</v>
+        <v>11930730.59273292</v>
       </c>
       <c r="F3" t="n">
-        <v>14950938.17021313</v>
+        <v>13566586.90620976</v>
       </c>
       <c r="G3" t="n">
-        <v>16960849.5759607</v>
+        <v>12682486.85908413</v>
       </c>
       <c r="H3" t="n">
-        <v>17157180.61099744</v>
+        <v>14019585.50393868</v>
       </c>
       <c r="I3" t="n">
-        <v>18162068.0107487</v>
+        <v>14634259.73942338</v>
       </c>
       <c r="J3" t="n">
-        <v>19150779.1587087</v>
+        <v>15213000.98607442</v>
       </c>
       <c r="K3" t="n">
-        <v>20103584.26612726</v>
+        <v>15765099.47807387</v>
       </c>
       <c r="L3" t="n">
-        <v>21029704.55216328</v>
+        <v>16252328.36267787</v>
       </c>
       <c r="M3" t="n">
-        <v>21891240.84904866</v>
+        <v>16742236.20696384</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4881584.052342436</v>
+        <v>15282448.05115925</v>
       </c>
       <c r="C4" t="n">
-        <v>4379634.131488925</v>
+        <v>20109963.05310323</v>
       </c>
       <c r="D4" t="n">
-        <v>5018697.05322717</v>
+        <v>24512375.06422014</v>
       </c>
       <c r="E4" t="n">
-        <v>5233589.171859422</v>
+        <v>28667436.1838647</v>
       </c>
       <c r="F4" t="n">
-        <v>5211667.669885426</v>
+        <v>33116157.56666174</v>
       </c>
       <c r="G4" t="n">
-        <v>5515116.200908692</v>
+        <v>36727960.28294577</v>
       </c>
       <c r="H4" t="n">
-        <v>4986956.390040403</v>
+        <v>40960780.53957286</v>
       </c>
       <c r="I4" t="n">
-        <v>4926952.689214293</v>
+        <v>44948124.12618863</v>
       </c>
       <c r="J4" t="n">
-        <v>4725635.918463289</v>
+        <v>49809243.11265543</v>
       </c>
       <c r="K4" t="n">
-        <v>5398171.328027259</v>
+        <v>53876565.00076332</v>
       </c>
       <c r="L4" t="n">
-        <v>5276881.442414862</v>
+        <v>58041643.57004839</v>
       </c>
       <c r="M4" t="n">
-        <v>5253261.038743492</v>
+        <v>62015014.14709482</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3962538.434662552</v>
+        <v>22182051.10558401</v>
       </c>
       <c r="C5" t="n">
-        <v>5567544.078088746</v>
+        <v>23731508.29591879</v>
       </c>
       <c r="D5" t="n">
-        <v>7172468.364085043</v>
+        <v>24217692.28334727</v>
       </c>
       <c r="E5" t="n">
-        <v>8776330.673051359</v>
+        <v>26543952.50891448</v>
       </c>
       <c r="F5" t="n">
-        <v>10369930.19076798</v>
+        <v>38427090.41217151</v>
       </c>
       <c r="G5" t="n">
-        <v>11932067.73064013</v>
+        <v>18701886.9601014</v>
       </c>
       <c r="H5" t="n">
-        <v>13590314.34734659</v>
+        <v>29531536.24113265</v>
       </c>
       <c r="I5" t="n">
-        <v>15198258.44024512</v>
+        <v>30330773.06525492</v>
       </c>
       <c r="J5" t="n">
-        <v>16802220.96771024</v>
+        <v>30352932.24615744</v>
       </c>
       <c r="K5" t="n">
-        <v>18407501.77538154</v>
+        <v>30491064.29292545</v>
       </c>
       <c r="L5" t="n">
-        <v>20015027.21862703</v>
+        <v>32440037.58312919</v>
       </c>
       <c r="M5" t="n">
-        <v>21617014.52426097</v>
+        <v>31841242.16517325</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8185450.359073937</v>
+        <v>2007740.579925691</v>
       </c>
       <c r="C6" t="n">
-        <v>8315696.190265182</v>
+        <v>3464263.131824347</v>
       </c>
       <c r="D6" t="n">
-        <v>8746792.772500945</v>
+        <v>1223373.749528785</v>
       </c>
       <c r="E6" t="n">
-        <v>9919500.955803473</v>
+        <v>3957105.271671542</v>
       </c>
       <c r="F6" t="n">
-        <v>10313438.76737697</v>
+        <v>1948809.210795486</v>
       </c>
       <c r="G6" t="n">
-        <v>17707008.81457673</v>
+        <v>1676284.499634842</v>
       </c>
       <c r="H6" t="n">
-        <v>7484707.247258779</v>
+        <v>4525370.383453572</v>
       </c>
       <c r="I6" t="n">
-        <v>12352039.80705876</v>
+        <v>5282178.666440374</v>
       </c>
       <c r="J6" t="n">
-        <v>10857920.31707317</v>
+        <v>3632380.001328457</v>
       </c>
       <c r="K6" t="n">
-        <v>10977509.52093138</v>
+        <v>4445726.343475237</v>
       </c>
       <c r="L6" t="n">
-        <v>11592221.13350762</v>
+        <v>2449844.203927598</v>
       </c>
       <c r="M6" t="n">
-        <v>11966265.36055441</v>
+        <v>3913040.823934064</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2048245.977458683</v>
+        <v>8413101.011818537</v>
       </c>
       <c r="C7" t="n">
-        <v>2370799.326701207</v>
+        <v>8131873.444903403</v>
       </c>
       <c r="D7" t="n">
-        <v>2973194.858798936</v>
+        <v>8924216.994428353</v>
       </c>
       <c r="E7" t="n">
-        <v>2541369.472755605</v>
+        <v>7635552.096431692</v>
       </c>
       <c r="F7" t="n">
-        <v>2940436.313420566</v>
+        <v>8321191.540623183</v>
       </c>
       <c r="G7" t="n">
-        <v>4797544.024828039</v>
+        <v>7597030.127833347</v>
       </c>
       <c r="H7" t="n">
-        <v>1867431.181958006</v>
+        <v>9841405.679224182</v>
       </c>
       <c r="I7" t="n">
-        <v>2945400.450402136</v>
+        <v>10983917.87826438</v>
       </c>
       <c r="J7" t="n">
-        <v>3275300.466554478</v>
+        <v>10075445.94362199</v>
       </c>
       <c r="K7" t="n">
-        <v>3714060.755565071</v>
+        <v>9266430.455455501</v>
       </c>
       <c r="L7" t="n">
-        <v>2800842.239972469</v>
+        <v>9326100.770280046</v>
       </c>
       <c r="M7" t="n">
-        <v>3569372.68929251</v>
+        <v>9892470.304911723</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617724.772508549</v>
+        <v>16496050.37079611</v>
       </c>
       <c r="C8" t="n">
-        <v>1464907.775948148</v>
+        <v>19266742.83070118</v>
       </c>
       <c r="D8" t="n">
-        <v>1364711.387486693</v>
+        <v>19290777.31359834</v>
       </c>
       <c r="E8" t="n">
-        <v>1633019.166579618</v>
+        <v>21050828.87116701</v>
       </c>
       <c r="F8" t="n">
-        <v>2224618.036907448</v>
+        <v>26780225.05068288</v>
       </c>
       <c r="G8" t="n">
-        <v>1619213.316642517</v>
+        <v>15280022.79721558</v>
       </c>
       <c r="H8" t="n">
-        <v>875187.6721647501</v>
+        <v>20896851.33335876</v>
       </c>
       <c r="I8" t="n">
-        <v>1312470.681140344</v>
+        <v>24462456.7862111</v>
       </c>
       <c r="J8" t="n">
-        <v>1305362.179671443</v>
+        <v>22627339.96863334</v>
       </c>
       <c r="K8" t="n">
-        <v>1383721.400836468</v>
+        <v>20665668.36073356</v>
       </c>
       <c r="L8" t="n">
-        <v>1132208.341152694</v>
+        <v>22058763.33624731</v>
       </c>
       <c r="M8" t="n">
-        <v>1491992.06239479</v>
+        <v>22043849.33963519</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3194750.704629415</v>
+        <v>28687728.53422228</v>
       </c>
       <c r="C9" t="n">
-        <v>3442026.434883634</v>
+        <v>27841488.67343732</v>
       </c>
       <c r="D9" t="n">
-        <v>3687292.88188961</v>
+        <v>28351142.88143919</v>
       </c>
       <c r="E9" t="n">
-        <v>3915004.907539041</v>
+        <v>29091391.62209728</v>
       </c>
       <c r="F9" t="n">
-        <v>4122174.903159664</v>
+        <v>38019163.34646554</v>
       </c>
       <c r="G9" t="n">
-        <v>4322310.357505743</v>
+        <v>28399658.38284485</v>
       </c>
       <c r="H9" t="n">
-        <v>4574429.526847235</v>
+        <v>33019532.72103371</v>
       </c>
       <c r="I9" t="n">
-        <v>5109554.617150259</v>
+        <v>34054213.79384511</v>
       </c>
       <c r="J9" t="n">
-        <v>5548525.55053927</v>
+        <v>36017819.08327062</v>
       </c>
       <c r="K9" t="n">
-        <v>5756098.549680093</v>
+        <v>35197637.99120187</v>
       </c>
       <c r="L9" t="n">
-        <v>6261183.279333197</v>
+        <v>37712854.87955041</v>
       </c>
       <c r="M9" t="n">
-        <v>6155351.268926093</v>
+        <v>34999256.66080858</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4390759.518547329</v>
+        <v>26753451.21662287</v>
       </c>
       <c r="C10" t="n">
-        <v>5288016.604737769</v>
+        <v>32166109.21233303</v>
       </c>
       <c r="D10" t="n">
-        <v>5629160.900250356</v>
+        <v>37712067.02783578</v>
       </c>
       <c r="E10" t="n">
-        <v>4749284.242509807</v>
+        <v>42833121.42964992</v>
       </c>
       <c r="F10" t="n">
-        <v>5384218.765336053</v>
+        <v>48475943.76675792</v>
       </c>
       <c r="G10" t="n">
-        <v>8193322.598668925</v>
+        <v>52411529.52598505</v>
       </c>
       <c r="H10" t="n">
-        <v>3848123.89327221</v>
+        <v>58687663.41034035</v>
       </c>
       <c r="I10" t="n">
-        <v>5645746.878240163</v>
+        <v>65570441.76243687</v>
       </c>
       <c r="J10" t="n">
-        <v>7230397.500991103</v>
+        <v>71652183.99470536</v>
       </c>
       <c r="K10" t="n">
-        <v>6180737.160445913</v>
+        <v>76556907.16175362</v>
       </c>
       <c r="L10" t="n">
-        <v>6357305.707062487</v>
+        <v>80908492.76136366</v>
       </c>
       <c r="M10" t="n">
-        <v>6266057.867199358</v>
+        <v>86892197.8900166</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3409162.890867038</v>
+        <v>16433875.38442315</v>
       </c>
       <c r="C11" t="n">
-        <v>2777960.747075986</v>
+        <v>17989446.02449686</v>
       </c>
       <c r="D11" t="n">
-        <v>3958219.566191907</v>
+        <v>19770761.41740422</v>
       </c>
       <c r="E11" t="n">
-        <v>1839056.340044896</v>
+        <v>20510918.80265343</v>
       </c>
       <c r="F11" t="n">
-        <v>4291394.106283093</v>
+        <v>19765401.98730139</v>
       </c>
       <c r="G11" t="n">
-        <v>2101929.615274108</v>
+        <v>19715143.92734444</v>
       </c>
       <c r="H11" t="n">
-        <v>2291270.518357812</v>
+        <v>21257090.80853495</v>
       </c>
       <c r="I11" t="n">
-        <v>3758014.638686384</v>
+        <v>21911259.40665637</v>
       </c>
       <c r="J11" t="n">
-        <v>3771688.375150211</v>
+        <v>22570039.52689578</v>
       </c>
       <c r="K11" t="n">
-        <v>3025003.88055321</v>
+        <v>23279864.01245425</v>
       </c>
       <c r="L11" t="n">
-        <v>4028610.428185899</v>
+        <v>23982329.7213237</v>
       </c>
       <c r="M11" t="n">
-        <v>2436456.883006666</v>
+        <v>25220376.79229893</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>350260.4718752244</v>
+        <v>40729831.7195133</v>
       </c>
       <c r="C12" t="n">
-        <v>-129202.7860993383</v>
+        <v>44860258.73639278</v>
       </c>
       <c r="D12" t="n">
-        <v>18510.18107096883</v>
+        <v>47381908.87478991</v>
       </c>
       <c r="E12" t="n">
-        <v>-231720.4840524016</v>
+        <v>46272386.22233663</v>
       </c>
       <c r="F12" t="n">
-        <v>-78870.79697521086</v>
+        <v>40453689.64564378</v>
       </c>
       <c r="G12" t="n">
-        <v>-26224.46636528363</v>
+        <v>39134334.72546201</v>
       </c>
       <c r="H12" t="n">
-        <v>-466703.585229355</v>
+        <v>45139839.45960757</v>
       </c>
       <c r="I12" t="n">
-        <v>637180.7756174895</v>
+        <v>41749196.57244675</v>
       </c>
       <c r="J12" t="n">
-        <v>1251809.501526064</v>
+        <v>41513869.14509386</v>
       </c>
       <c r="K12" t="n">
-        <v>220183.9069878025</v>
+        <v>38271617.23535842</v>
       </c>
       <c r="L12" t="n">
-        <v>-98651.30980553159</v>
+        <v>44363731.6078949</v>
       </c>
       <c r="M12" t="n">
-        <v>-630727.3474922829</v>
+        <v>50840803.98887277</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1648511.252953968</v>
+        <v>45840069.83940262</v>
       </c>
       <c r="C13" t="n">
-        <v>1720405.752061525</v>
+        <v>46122193.55424492</v>
       </c>
       <c r="D13" t="n">
-        <v>1784214.082301202</v>
+        <v>49277302.89170808</v>
       </c>
       <c r="E13" t="n">
-        <v>2127889.487344807</v>
+        <v>43255055.44044776</v>
       </c>
       <c r="F13" t="n">
-        <v>2022804.696945081</v>
+        <v>40970067.45912495</v>
       </c>
       <c r="G13" t="n">
-        <v>2230240.186793311</v>
+        <v>38687214.34781311</v>
       </c>
       <c r="H13" t="n">
-        <v>2404553.405745748</v>
+        <v>42889660.46365683</v>
       </c>
       <c r="I13" t="n">
-        <v>2536044.545012907</v>
+        <v>39641995.36782143</v>
       </c>
       <c r="J13" t="n">
-        <v>2672633.66023901</v>
+        <v>42092298.58793628</v>
       </c>
       <c r="K13" t="n">
-        <v>2801939.475792408</v>
+        <v>36685274.02745895</v>
       </c>
       <c r="L13" t="n">
-        <v>2930633.703526287</v>
+        <v>42740270.94854732</v>
       </c>
       <c r="M13" t="n">
-        <v>3063419.429308284</v>
+        <v>48850191.82244807</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-224066.6970267869</v>
+        <v>3173840.473681762</v>
       </c>
       <c r="C14" t="n">
-        <v>-92715.60380911059</v>
+        <v>4305327.690494124</v>
       </c>
       <c r="D14" t="n">
-        <v>-275236.3996966847</v>
+        <v>5434854.711723184</v>
       </c>
       <c r="E14" t="n">
-        <v>580651.6119076547</v>
+        <v>6566105.741260073</v>
       </c>
       <c r="F14" t="n">
-        <v>-285141.636498886</v>
+        <v>7690025.08535551</v>
       </c>
       <c r="G14" t="n">
-        <v>12438.24465045647</v>
+        <v>8789401.701485245</v>
       </c>
       <c r="H14" t="n">
-        <v>-173901.4825801591</v>
+        <v>10014834.97592679</v>
       </c>
       <c r="I14" t="n">
-        <v>1193717.104932863</v>
+        <v>11157239.21053857</v>
       </c>
       <c r="J14" t="n">
-        <v>2390381.419876807</v>
+        <v>12295079.96440088</v>
       </c>
       <c r="K14" t="n">
-        <v>1496105.710175302</v>
+        <v>13435367.22288934</v>
       </c>
       <c r="L14" t="n">
-        <v>690967.4305007652</v>
+        <v>14579193.89242092</v>
       </c>
       <c r="M14" t="n">
-        <v>762986.713573826</v>
+        <v>15715395.25025873</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>981164.0400089779</v>
+        <v>4205409.455931538</v>
       </c>
       <c r="C15" t="n">
-        <v>903110.5384249936</v>
+        <v>3766160.95421365</v>
       </c>
       <c r="D15" t="n">
-        <v>958735.9756156029</v>
+        <v>3643167.31672962</v>
       </c>
       <c r="E15" t="n">
-        <v>1038473.033688472</v>
+        <v>4366096.884530389</v>
       </c>
       <c r="F15" t="n">
-        <v>1071303.331670673</v>
+        <v>3968257.945020061</v>
       </c>
       <c r="G15" t="n">
-        <v>1401369.263073011</v>
+        <v>3851753.038587544</v>
       </c>
       <c r="H15" t="n">
-        <v>1283982.050609562</v>
+        <v>4602846.427360166</v>
       </c>
       <c r="I15" t="n">
-        <v>1342901.032712616</v>
+        <v>4525694.63708672</v>
       </c>
       <c r="J15" t="n">
-        <v>1407044.354388239</v>
+        <v>5238542.815972882</v>
       </c>
       <c r="K15" t="n">
-        <v>1469799.052873737</v>
+        <v>4359357.470108243</v>
       </c>
       <c r="L15" t="n">
-        <v>1531897.705743546</v>
+        <v>4197879.791715507</v>
       </c>
       <c r="M15" t="n">
-        <v>1593688.99721356</v>
+        <v>4079620.627228263</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1245261.017140056</v>
+        <v>9868345.225053495</v>
       </c>
       <c r="C16" t="n">
-        <v>1310991.18662847</v>
+        <v>13369250.03903664</v>
       </c>
       <c r="D16" t="n">
-        <v>1419058.771124763</v>
+        <v>12880417.67481367</v>
       </c>
       <c r="E16" t="n">
-        <v>1544970.54440675</v>
+        <v>14764552.8904554</v>
       </c>
       <c r="F16" t="n">
-        <v>1610365.216677928</v>
+        <v>14628333.24026891</v>
       </c>
       <c r="G16" t="n">
-        <v>1992236.655398642</v>
+        <v>14510450.05575604</v>
       </c>
       <c r="H16" t="n">
-        <v>1978518.002982626</v>
+        <v>13638010.07095243</v>
       </c>
       <c r="I16" t="n">
-        <v>2102481.21333319</v>
+        <v>14045336.89305698</v>
       </c>
       <c r="J16" t="n">
-        <v>2228336.512973985</v>
+        <v>15341534.62958146</v>
       </c>
       <c r="K16" t="n">
-        <v>2353414.955794723</v>
+        <v>15068210.25408273</v>
       </c>
       <c r="L16" t="n">
-        <v>2479233.240036406</v>
+        <v>15103014.94605034</v>
       </c>
       <c r="M16" t="n">
-        <v>2595058.019616115</v>
+        <v>15274705.64441526</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7730679.691262564</v>
+        <v>4917102.273526863</v>
       </c>
       <c r="C17" t="n">
-        <v>8636830.128734371</v>
+        <v>5607183.753993561</v>
       </c>
       <c r="D17" t="n">
-        <v>9522449.03551198</v>
+        <v>5757305.246389416</v>
       </c>
       <c r="E17" t="n">
-        <v>10125212.77712237</v>
+        <v>6137410.151789269</v>
       </c>
       <c r="F17" t="n">
-        <v>10919861.15290869</v>
+        <v>5606769.085597236</v>
       </c>
       <c r="G17" t="n">
-        <v>11591942.61134943</v>
+        <v>4955718.367377644</v>
       </c>
       <c r="H17" t="n">
-        <v>12817410.38938725</v>
+        <v>6259943.567710764</v>
       </c>
       <c r="I17" t="n">
-        <v>13953707.81185877</v>
+        <v>5413351.888034117</v>
       </c>
       <c r="J17" t="n">
-        <v>14809925.22194797</v>
+        <v>5371533.152070746</v>
       </c>
       <c r="K17" t="n">
-        <v>15539166.50840949</v>
+        <v>5553561.480234249</v>
       </c>
       <c r="L17" t="n">
-        <v>16727004.91004864</v>
+        <v>6206887.912423274</v>
       </c>
       <c r="M17" t="n">
-        <v>17291671.05886175</v>
+        <v>6254404.426037995</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1026236.102057825</v>
+        <v>3342247.05429185</v>
       </c>
       <c r="C18" t="n">
-        <v>737218.6098639898</v>
+        <v>3793985.109332276</v>
       </c>
       <c r="D18" t="n">
-        <v>1325438.638918435</v>
+        <v>3262675.07640726</v>
       </c>
       <c r="E18" t="n">
-        <v>1037161.557529178</v>
+        <v>3178369.706334396</v>
       </c>
       <c r="F18" t="n">
-        <v>1397424.705122455</v>
+        <v>3724408.81003997</v>
       </c>
       <c r="G18" t="n">
-        <v>3832707.930755445</v>
+        <v>3201929.496827649</v>
       </c>
       <c r="H18" t="n">
-        <v>925832.4207916716</v>
+        <v>4477685.060617433</v>
       </c>
       <c r="I18" t="n">
-        <v>1439027.017505267</v>
+        <v>3940839.099559468</v>
       </c>
       <c r="J18" t="n">
-        <v>1683861.474451428</v>
+        <v>3369958.983528526</v>
       </c>
       <c r="K18" t="n">
-        <v>1371311.105537806</v>
+        <v>4361713.929845612</v>
       </c>
       <c r="L18" t="n">
-        <v>1081369.81897273</v>
+        <v>4537774.368841391</v>
       </c>
       <c r="M18" t="n">
-        <v>1431680.337946706</v>
+        <v>3198549.68050041</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-36455.6831534316</v>
+        <v>6837288.21900082</v>
       </c>
       <c r="C19" t="n">
-        <v>-125685.1854341704</v>
+        <v>4585475.393896972</v>
       </c>
       <c r="D19" t="n">
-        <v>193107.3417384678</v>
+        <v>6423949.529726514</v>
       </c>
       <c r="E19" t="n">
-        <v>-117160.5591724322</v>
+        <v>4980714.770179917</v>
       </c>
       <c r="F19" t="n">
-        <v>-182769.7852750593</v>
+        <v>6172770.577455789</v>
       </c>
       <c r="G19" t="n">
-        <v>-48455.83169881535</v>
+        <v>3186624.188684179</v>
       </c>
       <c r="H19" t="n">
-        <v>-183813.9137255872</v>
+        <v>4390400.291115745</v>
       </c>
       <c r="I19" t="n">
-        <v>-148289.0448069978</v>
+        <v>5878737.849567679</v>
       </c>
       <c r="J19" t="n">
-        <v>45827.50121362245</v>
+        <v>3819788.69184202</v>
       </c>
       <c r="K19" t="n">
-        <v>-203351.5846472969</v>
+        <v>3286239.522848817</v>
       </c>
       <c r="L19" t="n">
-        <v>-113390.6960357766</v>
+        <v>4766229.717608043</v>
       </c>
       <c r="M19" t="n">
-        <v>-277627.389847995</v>
+        <v>6208177.507923054</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1790507.003908263</v>
+        <v>1853314.179059202</v>
       </c>
       <c r="C20" t="n">
-        <v>1930323.979628262</v>
+        <v>2595081.064274486</v>
       </c>
       <c r="D20" t="n">
-        <v>1915042.549970077</v>
+        <v>3068705.501080354</v>
       </c>
       <c r="E20" t="n">
-        <v>2128577.601441253</v>
+        <v>3184070.43747288</v>
       </c>
       <c r="F20" t="n">
-        <v>2021544.847252993</v>
+        <v>2153034.055744208</v>
       </c>
       <c r="G20" t="n">
-        <v>2494690.595477371</v>
+        <v>2076494.225873215</v>
       </c>
       <c r="H20" t="n">
-        <v>116344.2535912106</v>
+        <v>3064614.432791368</v>
       </c>
       <c r="I20" t="n">
-        <v>1173208.155102137</v>
+        <v>3316264.195888245</v>
       </c>
       <c r="J20" t="n">
-        <v>1805963.006741406</v>
+        <v>1998474.642392776</v>
       </c>
       <c r="K20" t="n">
-        <v>1893130.032427688</v>
+        <v>2233746.554877555</v>
       </c>
       <c r="L20" t="n">
-        <v>1437546.055952203</v>
+        <v>3324518.169702253</v>
       </c>
       <c r="M20" t="n">
-        <v>2033905.193261768</v>
+        <v>2340893.549557018</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2009032.584360126</v>
+        <v>4079562.084049449</v>
       </c>
       <c r="C21" t="n">
-        <v>1557420.156355904</v>
+        <v>4130701.674266316</v>
       </c>
       <c r="D21" t="n">
-        <v>1724578.174006391</v>
+        <v>5418472.157561631</v>
       </c>
       <c r="E21" t="n">
-        <v>2563404.068530596</v>
+        <v>5049346.208374445</v>
       </c>
       <c r="F21" t="n">
-        <v>2020706.788454704</v>
+        <v>5335562.06808309</v>
       </c>
       <c r="G21" t="n">
-        <v>2114316.293396878</v>
+        <v>4583682.145350764</v>
       </c>
       <c r="H21" t="n">
-        <v>2243008.761536143</v>
+        <v>4334385.823916737</v>
       </c>
       <c r="I21" t="n">
-        <v>2683159.278168097</v>
+        <v>4341100.883046229</v>
       </c>
       <c r="J21" t="n">
-        <v>2676165.487983083</v>
+        <v>4571686.99749761</v>
       </c>
       <c r="K21" t="n">
-        <v>3261041.08452555</v>
+        <v>4896372.415655124</v>
       </c>
       <c r="L21" t="n">
-        <v>2930900.96642983</v>
+        <v>5149433.889300204</v>
       </c>
       <c r="M21" t="n">
-        <v>3174175.708609745</v>
+        <v>4385829.207968596</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85244.40239635669</v>
+        <v>9403687.50322373</v>
       </c>
       <c r="C22" t="n">
-        <v>-42766.90666686255</v>
+        <v>11399243.97650874</v>
       </c>
       <c r="D22" t="n">
-        <v>-54162.70087176329</v>
+        <v>12881801.12617278</v>
       </c>
       <c r="E22" t="n">
-        <v>38284.00119043072</v>
+        <v>12312595.84598954</v>
       </c>
       <c r="F22" t="n">
-        <v>866412.2443625408</v>
+        <v>12580417.04942701</v>
       </c>
       <c r="G22" t="n">
-        <v>1387808.289673692</v>
+        <v>9624204.214974519</v>
       </c>
       <c r="H22" t="n">
-        <v>1249917.775719666</v>
+        <v>11980441.85959071</v>
       </c>
       <c r="I22" t="n">
-        <v>716332.2452854523</v>
+        <v>10489027.17372272</v>
       </c>
       <c r="J22" t="n">
-        <v>1347708.905793856</v>
+        <v>12142082.14585257</v>
       </c>
       <c r="K22" t="n">
-        <v>1041208.299456905</v>
+        <v>9978818.756386394</v>
       </c>
       <c r="L22" t="n">
-        <v>568715.2068535158</v>
+        <v>11451236.63942253</v>
       </c>
       <c r="M22" t="n">
-        <v>436543.6737185071</v>
+        <v>11125251.69866873</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-49117.31840882693</v>
+        <v>16654363.95535844</v>
       </c>
       <c r="C23" t="n">
-        <v>-49118.40724065533</v>
+        <v>13434937.44112764</v>
       </c>
       <c r="D23" t="n">
-        <v>-49119.01845434491</v>
+        <v>10411158.45762537</v>
       </c>
       <c r="E23" t="n">
-        <v>-47979.73669107987</v>
+        <v>10331797.0405035</v>
       </c>
       <c r="F23" t="n">
-        <v>-41585.70510035835</v>
+        <v>10445828.03740195</v>
       </c>
       <c r="G23" t="n">
-        <v>247955.69799921</v>
+        <v>6645590.102669869</v>
       </c>
       <c r="H23" t="n">
-        <v>-49110.18773618822</v>
+        <v>9812243.83070747</v>
       </c>
       <c r="I23" t="n">
-        <v>111885.895204472</v>
+        <v>9738393.230297204</v>
       </c>
       <c r="J23" t="n">
-        <v>59536.39235217362</v>
+        <v>9606373.63996073</v>
       </c>
       <c r="K23" t="n">
-        <v>-29051.43496383741</v>
+        <v>8114082.468550532</v>
       </c>
       <c r="L23" t="n">
-        <v>15828.39283719024</v>
+        <v>10912249.36928375</v>
       </c>
       <c r="M23" t="n">
-        <v>-49116.42368475898</v>
+        <v>11285521.95245474</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13756021.96562591</v>
+        <v>8528365.595247516</v>
       </c>
       <c r="C24" t="n">
-        <v>11532250.97236725</v>
+        <v>10208541.05024936</v>
       </c>
       <c r="D24" t="n">
-        <v>12942985.38799175</v>
+        <v>9866516.366700832</v>
       </c>
       <c r="E24" t="n">
-        <v>11663089.81327769</v>
+        <v>10661176.5415151</v>
       </c>
       <c r="F24" t="n">
-        <v>12175932.8171642</v>
+        <v>13414715.9610992</v>
       </c>
       <c r="G24" t="n">
-        <v>14805562.55349576</v>
+        <v>8343269.540362345</v>
       </c>
       <c r="H24" t="n">
-        <v>10081452.81621297</v>
+        <v>10981050.50979298</v>
       </c>
       <c r="I24" t="n">
-        <v>12947510.75099693</v>
+        <v>11396934.71268812</v>
       </c>
       <c r="J24" t="n">
-        <v>14702334.18338171</v>
+        <v>11821673.49996343</v>
       </c>
       <c r="K24" t="n">
-        <v>13095365.88836356</v>
+        <v>10119043.14550306</v>
       </c>
       <c r="L24" t="n">
-        <v>12776318.13399045</v>
+        <v>11128404.22671826</v>
       </c>
       <c r="M24" t="n">
-        <v>12492984.57794562</v>
+        <v>11922198.40810827</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2513801.363503824</v>
+        <v>4913212.75346799</v>
       </c>
       <c r="C25" t="n">
-        <v>2604886.306668991</v>
+        <v>6572533.654270764</v>
       </c>
       <c r="D25" t="n">
-        <v>2320729.675182731</v>
+        <v>6505035.401228041</v>
       </c>
       <c r="E25" t="n">
-        <v>3277616.673194801</v>
+        <v>6100111.88663995</v>
       </c>
       <c r="F25" t="n">
-        <v>3143988.058572875</v>
+        <v>7135313.33548413</v>
       </c>
       <c r="G25" t="n">
-        <v>2862327.225996392</v>
+        <v>4591251.597904379</v>
       </c>
       <c r="H25" t="n">
-        <v>1684102.846835291</v>
+        <v>5339606.072100787</v>
       </c>
       <c r="I25" t="n">
-        <v>2547764.581166518</v>
+        <v>7129359.856180332</v>
       </c>
       <c r="J25" t="n">
-        <v>2794369.583870819</v>
+        <v>6031757.738908381</v>
       </c>
       <c r="K25" t="n">
-        <v>2755541.248799745</v>
+        <v>4516330.021643169</v>
       </c>
       <c r="L25" t="n">
-        <v>2375475.745789362</v>
+        <v>4929163.42183689</v>
       </c>
       <c r="M25" t="n">
-        <v>3087863.680629472</v>
+        <v>6187327.223141802</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11611815.09329632</v>
+        <v>11372289.27816585</v>
       </c>
       <c r="C26" t="n">
-        <v>12208831.59154331</v>
+        <v>11414372.65998016</v>
       </c>
       <c r="D26" t="n">
-        <v>11130167.35016571</v>
+        <v>11363240.84708645</v>
       </c>
       <c r="E26" t="n">
-        <v>11369436.16677692</v>
+        <v>10291048.5308029</v>
       </c>
       <c r="F26" t="n">
-        <v>11119181.87677153</v>
+        <v>12791412.9357924</v>
       </c>
       <c r="G26" t="n">
-        <v>13087182.6617207</v>
+        <v>10027718.25334352</v>
       </c>
       <c r="H26" t="n">
-        <v>11650328.04075725</v>
+        <v>12892935.15399374</v>
       </c>
       <c r="I26" t="n">
-        <v>12137664.22546686</v>
+        <v>12604230.36382779</v>
       </c>
       <c r="J26" t="n">
-        <v>13575801.04711876</v>
+        <v>10488574.1506798</v>
       </c>
       <c r="K26" t="n">
-        <v>15700031.13186284</v>
+        <v>11025922.45024205</v>
       </c>
       <c r="L26" t="n">
-        <v>15090018.38635748</v>
+        <v>11221687.15479611</v>
       </c>
       <c r="M26" t="n">
-        <v>16390441.60179751</v>
+        <v>12040829.78450679</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13984990.20687812</v>
+        <v>3991742.24049226</v>
       </c>
       <c r="C27" t="n">
-        <v>14719378.27729538</v>
+        <v>3536332.593178006</v>
       </c>
       <c r="D27" t="n">
-        <v>15234956.1553038</v>
+        <v>3632063.608574444</v>
       </c>
       <c r="E27" t="n">
-        <v>15401283.15032071</v>
+        <v>3083329.1034054</v>
       </c>
       <c r="F27" t="n">
-        <v>16469478.4812538</v>
+        <v>4328971.743448823</v>
       </c>
       <c r="G27" t="n">
-        <v>23209885.35776675</v>
+        <v>2675607.572934876</v>
       </c>
       <c r="H27" t="n">
-        <v>16198671.89927057</v>
+        <v>3504065.12423189</v>
       </c>
       <c r="I27" t="n">
-        <v>19150828.51647508</v>
+        <v>3389167.124096651</v>
       </c>
       <c r="J27" t="n">
-        <v>18431813.28625416</v>
+        <v>3029787.525662688</v>
       </c>
       <c r="K27" t="n">
-        <v>18416853.02430909</v>
+        <v>2395237.287648697</v>
       </c>
       <c r="L27" t="n">
-        <v>16944399.44384702</v>
+        <v>2733392.147341053</v>
       </c>
       <c r="M27" t="n">
-        <v>17407185.76863731</v>
+        <v>4275414.8044653</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15814522.54188744</v>
+        <v>10228932.21985118</v>
       </c>
       <c r="C28" t="n">
-        <v>17481190.2364629</v>
+        <v>7612582.252275942</v>
       </c>
       <c r="D28" t="n">
-        <v>19217087.85657605</v>
+        <v>7070316.890707881</v>
       </c>
       <c r="E28" t="n">
-        <v>20980746.19938421</v>
+        <v>8810521.440586314</v>
       </c>
       <c r="F28" t="n">
-        <v>22577600.86754118</v>
+        <v>12775874.76819565</v>
       </c>
       <c r="G28" t="n">
-        <v>25031349.55900519</v>
+        <v>8285150.199308688</v>
       </c>
       <c r="H28" t="n">
-        <v>26074837.2711436</v>
+        <v>11489366.08383172</v>
       </c>
       <c r="I28" t="n">
-        <v>28166606.96128903</v>
+        <v>10563431.23911836</v>
       </c>
       <c r="J28" t="n">
-        <v>30449132.98893071</v>
+        <v>10981504.24880329</v>
       </c>
       <c r="K28" t="n">
-        <v>32443065.18986785</v>
+        <v>8605215.8861202</v>
       </c>
       <c r="L28" t="n">
-        <v>34347466.1042252</v>
+        <v>10886468.44648997</v>
       </c>
       <c r="M28" t="n">
-        <v>35544151.55195085</v>
+        <v>14202940.77382607</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17843822.59400581</v>
+        <v>2448225.554125579</v>
       </c>
       <c r="C29" t="n">
-        <v>19139026.74025025</v>
+        <v>2530214.924092253</v>
       </c>
       <c r="D29" t="n">
-        <v>21074441.6513268</v>
+        <v>2489319.247066873</v>
       </c>
       <c r="E29" t="n">
-        <v>23154602.16313867</v>
+        <v>2610263.467081998</v>
       </c>
       <c r="F29" t="n">
-        <v>24202091.18522564</v>
+        <v>2648037.493814688</v>
       </c>
       <c r="G29" t="n">
-        <v>24125960.19311852</v>
+        <v>2741499.732963036</v>
       </c>
       <c r="H29" t="n">
-        <v>24911937.49906395</v>
+        <v>2894914.194093999</v>
       </c>
       <c r="I29" t="n">
-        <v>26488483.78319577</v>
+        <v>3066805.026356311</v>
       </c>
       <c r="J29" t="n">
-        <v>27258618.44946997</v>
+        <v>3220229.731159093</v>
       </c>
       <c r="K29" t="n">
-        <v>28545578.51715125</v>
+        <v>3272266.728074515</v>
       </c>
       <c r="L29" t="n">
-        <v>29187269.02561019</v>
+        <v>3497704.264616488</v>
       </c>
       <c r="M29" t="n">
-        <v>30929559.18575231</v>
+        <v>3522706.750187131</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49444910.32652872</v>
+        <v>678759.8083268716</v>
       </c>
       <c r="C30" t="n">
-        <v>43710917.10440322</v>
+        <v>685266.2580845578</v>
       </c>
       <c r="D30" t="n">
-        <v>47678839.65039471</v>
+        <v>692937.1406380166</v>
       </c>
       <c r="E30" t="n">
-        <v>50037962.12261955</v>
+        <v>713330.7500539246</v>
       </c>
       <c r="F30" t="n">
-        <v>48765933.02182416</v>
+        <v>1084459.656642752</v>
       </c>
       <c r="G30" t="n">
-        <v>42784762.6157348</v>
+        <v>773475.710075911</v>
       </c>
       <c r="H30" t="n">
-        <v>42840748.40725976</v>
+        <v>804357.3423607523</v>
       </c>
       <c r="I30" t="n">
-        <v>47146179.08615055</v>
+        <v>739425.7300152195</v>
       </c>
       <c r="J30" t="n">
-        <v>43593009.87809809</v>
+        <v>924726.5838015372</v>
       </c>
       <c r="K30" t="n">
-        <v>43195025.10419304</v>
+        <v>814168.2862096012</v>
       </c>
       <c r="L30" t="n">
-        <v>39790233.91693056</v>
+        <v>750621.2459794652</v>
       </c>
       <c r="M30" t="n">
-        <v>45719871.480076</v>
+        <v>856668.7857722532</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46185417.16508413</v>
+        <v>521292.5863750294</v>
       </c>
       <c r="C31" t="n">
-        <v>47781820.56608313</v>
+        <v>701958.6343332574</v>
       </c>
       <c r="D31" t="n">
-        <v>48133727.90214975</v>
+        <v>796577.8183688411</v>
       </c>
       <c r="E31" t="n">
-        <v>51358623.13282739</v>
+        <v>883543.6006014944</v>
       </c>
       <c r="F31" t="n">
-        <v>45406164.8709889</v>
+        <v>840867.0049646597</v>
       </c>
       <c r="G31" t="n">
-        <v>43190968.48794656</v>
+        <v>477954.7729214344</v>
       </c>
       <c r="H31" t="n">
-        <v>41803631.58226202</v>
+        <v>725115.3952371259</v>
       </c>
       <c r="I31" t="n">
-        <v>45250231.20014088</v>
+        <v>753696.3577940071</v>
       </c>
       <c r="J31" t="n">
-        <v>42072336.33807478</v>
+        <v>779942.6456417911</v>
       </c>
       <c r="K31" t="n">
-        <v>44592423.6030172</v>
+        <v>580259.0547933136</v>
       </c>
       <c r="L31" t="n">
-        <v>39255186.28948946</v>
+        <v>569480.6280437463</v>
       </c>
       <c r="M31" t="n">
-        <v>45379923.97815872</v>
+        <v>573293.4909170079</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>774570.2349639361</v>
+        <v>1830287.974837245</v>
       </c>
       <c r="C32" t="n">
-        <v>916198.7739178804</v>
+        <v>2110852.761691824</v>
       </c>
       <c r="D32" t="n">
-        <v>1054628.877329674</v>
+        <v>2117675.237627029</v>
       </c>
       <c r="E32" t="n">
-        <v>1189701.709752323</v>
+        <v>1999500.948834495</v>
       </c>
       <c r="F32" t="n">
-        <v>1321904.341978893</v>
+        <v>2175801.942957717</v>
       </c>
       <c r="G32" t="n">
-        <v>1450474.894204479</v>
+        <v>1842190.245801528</v>
       </c>
       <c r="H32" t="n">
-        <v>1586714.938800617</v>
+        <v>2032223.724378448</v>
       </c>
       <c r="I32" t="n">
-        <v>1810132.230751019</v>
+        <v>2179376.500409198</v>
       </c>
       <c r="J32" t="n">
-        <v>1954318.537760572</v>
+        <v>2346885.588944054</v>
       </c>
       <c r="K32" t="n">
-        <v>2025947.524213323</v>
+        <v>2190922.276740602</v>
       </c>
       <c r="L32" t="n">
-        <v>2108331.524964752</v>
+        <v>2357588.351813553</v>
       </c>
       <c r="M32" t="n">
-        <v>2321931.475632392</v>
+        <v>2261176.94731825</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3554620.473136278</v>
+        <v>2333129.267755739</v>
       </c>
       <c r="C33" t="n">
-        <v>4583557.568502123</v>
+        <v>2256475.305164087</v>
       </c>
       <c r="D33" t="n">
-        <v>4182708.268174092</v>
+        <v>2266211.025322825</v>
       </c>
       <c r="E33" t="n">
-        <v>4098109.915289316</v>
+        <v>2146538.589828557</v>
       </c>
       <c r="F33" t="n">
-        <v>4859432.657228313</v>
+        <v>2285620.962673409</v>
       </c>
       <c r="G33" t="n">
-        <v>4499989.523156386</v>
+        <v>2282720.675998725</v>
       </c>
       <c r="H33" t="n">
-        <v>4659586.939837138</v>
+        <v>2347396.331680023</v>
       </c>
       <c r="I33" t="n">
-        <v>5211387.624168405</v>
+        <v>2420944.609996115</v>
       </c>
       <c r="J33" t="n">
-        <v>5172635.12727743</v>
+        <v>2391058.598118396</v>
       </c>
       <c r="K33" t="n">
-        <v>5923863.022103813</v>
+        <v>2469936.608325943</v>
       </c>
       <c r="L33" t="n">
-        <v>5083066.002434578</v>
+        <v>2916687.142653617</v>
       </c>
       <c r="M33" t="n">
-        <v>4959844.935312727</v>
+        <v>3142233.694615302</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10238881.64438877</v>
+        <v>3393911.688451134</v>
       </c>
       <c r="C34" t="n">
-        <v>9259407.421168204</v>
+        <v>2487501.154217256</v>
       </c>
       <c r="D34" t="n">
-        <v>12687743.60342447</v>
+        <v>3474904.780634271</v>
       </c>
       <c r="E34" t="n">
-        <v>12126337.93694249</v>
+        <v>2738079.048731511</v>
       </c>
       <c r="F34" t="n">
-        <v>13937897.04135875</v>
+        <v>3220648.858014788</v>
       </c>
       <c r="G34" t="n">
-        <v>13729098.22915443</v>
+        <v>2855078.683603096</v>
       </c>
       <c r="H34" t="n">
-        <v>12121420.18569039</v>
+        <v>2917820.065731942</v>
       </c>
       <c r="I34" t="n">
-        <v>12593438.72888734</v>
+        <v>3061146.546200878</v>
       </c>
       <c r="J34" t="n">
-        <v>12928224.32889618</v>
+        <v>3219387.942917923</v>
       </c>
       <c r="K34" t="n">
-        <v>14151871.53844335</v>
+        <v>3160899.724466946</v>
       </c>
       <c r="L34" t="n">
-        <v>13805989.99961931</v>
+        <v>3341880.798133143</v>
       </c>
       <c r="M34" t="n">
-        <v>13768208.3839712</v>
+        <v>3363458.216427569</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4874509.382754405</v>
+        <v>1562548.892838516</v>
       </c>
       <c r="C35" t="n">
-        <v>4886129.67508487</v>
+        <v>1716708.944382186</v>
       </c>
       <c r="D35" t="n">
-        <v>5576592.071302928</v>
+        <v>1880656.024031415</v>
       </c>
       <c r="E35" t="n">
-        <v>5727097.210165887</v>
+        <v>1634239.452657396</v>
       </c>
       <c r="F35" t="n">
-        <v>6107583.751673346</v>
+        <v>1580770.585603219</v>
       </c>
       <c r="G35" t="n">
-        <v>5577324.615411771</v>
+        <v>1380740.307164676</v>
       </c>
       <c r="H35" t="n">
-        <v>5307817.672086632</v>
+        <v>1707670.329492837</v>
       </c>
       <c r="I35" t="n">
-        <v>6231336.218010755</v>
+        <v>1768256.334629389</v>
       </c>
       <c r="J35" t="n">
-        <v>5385094.691368179</v>
+        <v>1534794.329378588</v>
       </c>
       <c r="K35" t="n">
-        <v>5343633.011079096</v>
+        <v>1439934.797425123</v>
       </c>
       <c r="L35" t="n">
-        <v>5526025.655472382</v>
+        <v>1464593.555826115</v>
       </c>
       <c r="M35" t="n">
-        <v>6179889.379410075</v>
+        <v>1675964.672030333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1927125.673132007</v>
+        <v>1291066.588417616</v>
       </c>
       <c r="C36" t="n">
-        <v>2573647.940710686</v>
+        <v>1300763.4146733</v>
       </c>
       <c r="D36" t="n">
-        <v>2973295.159319288</v>
+        <v>1514570.396813751</v>
       </c>
       <c r="E36" t="n">
-        <v>2389895.640569001</v>
+        <v>1149991.594378588</v>
       </c>
       <c r="F36" t="n">
-        <v>2253496.145430965</v>
+        <v>1247019.676770815</v>
       </c>
       <c r="G36" t="n">
-        <v>2747438.653096222</v>
+        <v>1239968.248308765</v>
       </c>
       <c r="H36" t="n">
-        <v>2713562.109242061</v>
+        <v>1464240.076788535</v>
       </c>
       <c r="I36" t="n">
-        <v>3396595.087788018</v>
+        <v>1500221.880943469</v>
       </c>
       <c r="J36" t="n">
-        <v>2807644.457452116</v>
+        <v>1423040.49492263</v>
       </c>
       <c r="K36" t="n">
-        <v>2184654.927794212</v>
+        <v>1461976.589166677</v>
       </c>
       <c r="L36" t="n">
-        <v>3124298.755718875</v>
+        <v>1773898.099373033</v>
       </c>
       <c r="M36" t="n">
-        <v>3248462.38391273</v>
+        <v>1701434.251704756</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6423458.222690286</v>
+        <v>4692064.994550178</v>
       </c>
       <c r="C37" t="n">
-        <v>7122028.931980815</v>
+        <v>4106712.538081081</v>
       </c>
       <c r="D37" t="n">
-        <v>4882574.599841837</v>
+        <v>4866211.785753039</v>
       </c>
       <c r="E37" t="n">
-        <v>6733393.937015336</v>
+        <v>4342890.602116035</v>
       </c>
       <c r="F37" t="n">
-        <v>5302513.629971393</v>
+        <v>3769370.652481093</v>
       </c>
       <c r="G37" t="n">
-        <v>6506913.236562871</v>
+        <v>3388739.558999376</v>
       </c>
       <c r="H37" t="n">
-        <v>3203750.294304419</v>
+        <v>3509320.444619107</v>
       </c>
       <c r="I37" t="n">
-        <v>4749239.832380787</v>
+        <v>4828009.101614936</v>
       </c>
       <c r="J37" t="n">
-        <v>6249923.023094389</v>
+        <v>3867607.138208458</v>
       </c>
       <c r="K37" t="n">
-        <v>4203319.351134528</v>
+        <v>3473171.446028977</v>
       </c>
       <c r="L37" t="n">
-        <v>3682120.987539236</v>
+        <v>4477610.324464787</v>
       </c>
       <c r="M37" t="n">
-        <v>5174513.770809487</v>
+        <v>4798335.215594737</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2297522.909613053</v>
+        <v>3808014.571397253</v>
       </c>
       <c r="C38" t="n">
-        <v>1863280.591318645</v>
+        <v>4401719.064414633</v>
       </c>
       <c r="D38" t="n">
-        <v>2585847.50549859</v>
+        <v>4237341.044877547</v>
       </c>
       <c r="E38" t="n">
-        <v>3040275.626959559</v>
+        <v>3713225.781420647</v>
       </c>
       <c r="F38" t="n">
-        <v>3136446.464289979</v>
+        <v>4332612.270937383</v>
       </c>
       <c r="G38" t="n">
-        <v>2086217.327133039</v>
+        <v>3395842.343618559</v>
       </c>
       <c r="H38" t="n">
-        <v>1719074.106479205</v>
+        <v>4003925.958660423</v>
       </c>
       <c r="I38" t="n">
-        <v>2959371.541097717</v>
+        <v>3718060.965163379</v>
       </c>
       <c r="J38" t="n">
-        <v>3191847.001867183</v>
+        <v>3943893.059000081</v>
       </c>
       <c r="K38" t="n">
-        <v>1854876.693739254</v>
+        <v>4416227.749034966</v>
       </c>
       <c r="L38" t="n">
-        <v>2070963.940273025</v>
+        <v>4320115.789139852</v>
       </c>
       <c r="M38" t="n">
-        <v>3142583.312906419</v>
+        <v>4469613.089153698</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3603799.976445432</v>
+        <v>5130655.498154106</v>
       </c>
       <c r="C39" t="n">
-        <v>3769805.447013159</v>
+        <v>5285652.676841998</v>
       </c>
       <c r="D39" t="n">
-        <v>3801547.099172778</v>
+        <v>5989412.466597728</v>
       </c>
       <c r="E39" t="n">
-        <v>5062798.102078973</v>
+        <v>4896092.878728885</v>
       </c>
       <c r="F39" t="n">
-        <v>4665571.323494325</v>
+        <v>4980455.857532929</v>
       </c>
       <c r="G39" t="n">
-        <v>4927639.779954393</v>
+        <v>4647984.009179598</v>
       </c>
       <c r="H39" t="n">
-        <v>4079928.147649331</v>
+        <v>5124048.302630932</v>
       </c>
       <c r="I39" t="n">
-        <v>3878947.737856075</v>
+        <v>5315163.946502801</v>
       </c>
       <c r="J39" t="n">
-        <v>3844913.701965758</v>
+        <v>5714148.551733769</v>
       </c>
       <c r="K39" t="n">
-        <v>4050566.524928701</v>
+        <v>5968683.314884795</v>
       </c>
       <c r="L39" t="n">
-        <v>4351105.365085193</v>
+        <v>6128338.564345389</v>
       </c>
       <c r="M39" t="n">
-        <v>4578403.227368688</v>
+        <v>6325363.84856219</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10451812.57533965</v>
+        <v>5551966.863082221</v>
       </c>
       <c r="C40" t="n">
-        <v>10252668.21458134</v>
+        <v>5405571.45943329</v>
       </c>
       <c r="D40" t="n">
-        <v>12322721.85944366</v>
+        <v>5751883.270008866</v>
       </c>
       <c r="E40" t="n">
-        <v>13879806.3429528</v>
+        <v>5424972.161893386</v>
       </c>
       <c r="F40" t="n">
-        <v>13385112.34300529</v>
+        <v>5746046.898413519</v>
       </c>
       <c r="G40" t="n">
-        <v>13727467.56968859</v>
+        <v>4788689.102417356</v>
       </c>
       <c r="H40" t="n">
-        <v>10904739.7770211</v>
+        <v>5400424.49691567</v>
       </c>
       <c r="I40" t="n">
-        <v>13276544.31674313</v>
+        <v>5573944.67383845</v>
       </c>
       <c r="J40" t="n">
-        <v>11859695.41854681</v>
+        <v>6000672.684650024</v>
       </c>
       <c r="K40" t="n">
-        <v>13587243.90900579</v>
+        <v>5634263.641405636</v>
       </c>
       <c r="L40" t="n">
-        <v>11498487.96268125</v>
+        <v>6155477.934788469</v>
       </c>
       <c r="M40" t="n">
-        <v>13044938.06696571</v>
+        <v>5897689.228535189</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9868984.380863247</v>
+        <v>3070233.278640285</v>
       </c>
       <c r="C41" t="n">
-        <v>17364480.22017428</v>
+        <v>3296134.0608226</v>
       </c>
       <c r="D41" t="n">
-        <v>14249012.31844115</v>
+        <v>3421910.658405759</v>
       </c>
       <c r="E41" t="n">
-        <v>11329098.88893254</v>
+        <v>2876349.646994648</v>
       </c>
       <c r="F41" t="n">
-        <v>11353589.51400214</v>
+        <v>3549470.617008736</v>
       </c>
       <c r="G41" t="n">
-        <v>11571501.81339425</v>
+        <v>2867233.93780244</v>
       </c>
       <c r="H41" t="n">
-        <v>9625699.690498441</v>
+        <v>2880333.295390491</v>
       </c>
       <c r="I41" t="n">
-        <v>11145940.65548325</v>
+        <v>3175169.433543207</v>
       </c>
       <c r="J41" t="n">
-        <v>11175921.93947754</v>
+        <v>3251578.51996839</v>
       </c>
       <c r="K41" t="n">
-        <v>11147765.64905883</v>
+        <v>3005118.910268132</v>
       </c>
       <c r="L41" t="n">
-        <v>9759332.397445127</v>
+        <v>3269547.634464067</v>
       </c>
       <c r="M41" t="n">
-        <v>12661538.98580618</v>
+        <v>3596356.378895755</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9981840.995085627</v>
+        <v>4360644.988121385</v>
       </c>
       <c r="C42" t="n">
-        <v>8922334.468014475</v>
+        <v>4862780.334422141</v>
       </c>
       <c r="D42" t="n">
-        <v>10584451.91888252</v>
+        <v>4673848.836272025</v>
       </c>
       <c r="E42" t="n">
-        <v>10224409.19090728</v>
+        <v>4489026.740826838</v>
       </c>
       <c r="F42" t="n">
-        <v>11001020.34844958</v>
+        <v>4359662.030761122</v>
       </c>
       <c r="G42" t="n">
-        <v>13736554.0913762</v>
+        <v>3304807.766130961</v>
       </c>
       <c r="H42" t="n">
-        <v>9233273.606557252</v>
+        <v>3897819.304937968</v>
       </c>
       <c r="I42" t="n">
-        <v>11266879.35430933</v>
+        <v>4217614.880390042</v>
       </c>
       <c r="J42" t="n">
-        <v>11664714.13123751</v>
+        <v>4136624.594231305</v>
       </c>
       <c r="K42" t="n">
-        <v>12071390.45185936</v>
+        <v>3978884.950669826</v>
       </c>
       <c r="L42" t="n">
-        <v>10350688.93606439</v>
+        <v>4242393.019887642</v>
       </c>
       <c r="M42" t="n">
-        <v>11341930.51209243</v>
+        <v>4581391.942299482</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5998264.071580351</v>
+        <v>3299264.738463438</v>
       </c>
       <c r="C43" t="n">
-        <v>5456373.254162599</v>
+        <v>3341848.129033104</v>
       </c>
       <c r="D43" t="n">
-        <v>7159315.46819968</v>
+        <v>3368105.930578291</v>
       </c>
       <c r="E43" t="n">
-        <v>7135434.102858284</v>
+        <v>3501909.177501239</v>
       </c>
       <c r="F43" t="n">
-        <v>6774123.367225051</v>
+        <v>3739757.10070174</v>
       </c>
       <c r="G43" t="n">
-        <v>7852936.932755494</v>
+        <v>2698416.513055518</v>
       </c>
       <c r="H43" t="n">
-        <v>5770289.140137756</v>
+        <v>2782169.325530769</v>
       </c>
       <c r="I43" t="n">
-        <v>6144518.316064021</v>
+        <v>3524702.21197449</v>
       </c>
       <c r="J43" t="n">
-        <v>7977842.043112812</v>
+        <v>3215719.179463336</v>
       </c>
       <c r="K43" t="n">
-        <v>6923840.029878292</v>
+        <v>3311027.352049607</v>
       </c>
       <c r="L43" t="n">
-        <v>5452004.121508702</v>
+        <v>3625622.83025532</v>
       </c>
       <c r="M43" t="n">
-        <v>5908364.136142481</v>
+        <v>3642699.615655858</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13898507.79829822</v>
+        <v>5162488.431839836</v>
       </c>
       <c r="C44" t="n">
-        <v>15899644.56350054</v>
+        <v>6366882.532750222</v>
       </c>
       <c r="D44" t="n">
-        <v>15887348.54276264</v>
+        <v>5719776.155854234</v>
       </c>
       <c r="E44" t="n">
-        <v>15781651.58150883</v>
+        <v>5623004.773115652</v>
       </c>
       <c r="F44" t="n">
-        <v>14654893.13255541</v>
+        <v>6596463.797797872</v>
       </c>
       <c r="G44" t="n">
-        <v>17100691.39967023</v>
+        <v>5083578.077474657</v>
       </c>
       <c r="H44" t="n">
-        <v>15163792.27981876</v>
+        <v>5491021.741847307</v>
       </c>
       <c r="I44" t="n">
-        <v>17093432.19418799</v>
+        <v>6276719.359035839</v>
       </c>
       <c r="J44" t="n">
-        <v>16749812.22080788</v>
+        <v>5503053.261620684</v>
       </c>
       <c r="K44" t="n">
-        <v>14579588.07224759</v>
+        <v>5130561.163992722</v>
       </c>
       <c r="L44" t="n">
-        <v>15062370.22465617</v>
+        <v>5988568.011882731</v>
       </c>
       <c r="M44" t="n">
-        <v>15203902.79540407</v>
+        <v>6871368.970488518</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6368141.063630909</v>
+        <v>3301125.118660887</v>
       </c>
       <c r="C45" t="n">
-        <v>5529807.684054377</v>
+        <v>3876942.722416052</v>
       </c>
       <c r="D45" t="n">
-        <v>5089589.20246127</v>
+        <v>3248703.417516361</v>
       </c>
       <c r="E45" t="n">
-        <v>5200552.735813802</v>
+        <v>3357252.318514201</v>
       </c>
       <c r="F45" t="n">
-        <v>4667089.435963029</v>
+        <v>3534829.104314453</v>
       </c>
       <c r="G45" t="n">
-        <v>5928010.540831463</v>
+        <v>2985236.134697646</v>
       </c>
       <c r="H45" t="n">
-        <v>4822548.806578712</v>
+        <v>3284301.051139487</v>
       </c>
       <c r="I45" t="n">
-        <v>5133776.38958336</v>
+        <v>3584539.742280039</v>
       </c>
       <c r="J45" t="n">
-        <v>5034052.852997409</v>
+        <v>3573007.735221384</v>
       </c>
       <c r="K45" t="n">
-        <v>4689923.096861578</v>
+        <v>3320673.962056395</v>
       </c>
       <c r="L45" t="n">
-        <v>4070608.738316275</v>
+        <v>3496995.812288238</v>
       </c>
       <c r="M45" t="n">
-        <v>4424227.738035112</v>
+        <v>3899980.091684052</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14689003.30398266</v>
+        <v>2212674.603160954</v>
       </c>
       <c r="C46" t="n">
-        <v>11992378.2933474</v>
+        <v>2435716.212721931</v>
       </c>
       <c r="D46" t="n">
-        <v>9481170.324028263</v>
+        <v>2501244.67523456</v>
       </c>
       <c r="E46" t="n">
-        <v>9037731.346146943</v>
+        <v>1828213.683971433</v>
       </c>
       <c r="F46" t="n">
-        <v>10908415.95182551</v>
+        <v>2158160.782404547</v>
       </c>
       <c r="G46" t="n">
-        <v>14991569.60657398</v>
+        <v>1887281.551675933</v>
       </c>
       <c r="H46" t="n">
-        <v>9820949.278101007</v>
+        <v>2167902.973713477</v>
       </c>
       <c r="I46" t="n">
-        <v>13921605.83833769</v>
+        <v>2533839.429980221</v>
       </c>
       <c r="J46" t="n">
-        <v>13100831.69250696</v>
+        <v>2031284.56595295</v>
       </c>
       <c r="K46" t="n">
-        <v>13630396.65423083</v>
+        <v>2267635.058120161</v>
       </c>
       <c r="L46" t="n">
-        <v>11378265.14682541</v>
+        <v>2164095.023086176</v>
       </c>
       <c r="M46" t="n">
-        <v>13764814.74001892</v>
+        <v>2222574.84638272</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2239858.893950411</v>
+        <v>1581337.537974417</v>
       </c>
       <c r="C47" t="n">
-        <v>2297914.336298495</v>
+        <v>1561487.184391707</v>
       </c>
       <c r="D47" t="n">
-        <v>2364066.505772321</v>
+        <v>1586601.881274039</v>
       </c>
       <c r="E47" t="n">
-        <v>2307336.890245543</v>
+        <v>1354271.568388936</v>
       </c>
       <c r="F47" t="n">
-        <v>2412447.737490483</v>
+        <v>1312349.273491694</v>
       </c>
       <c r="G47" t="n">
-        <v>2434389.70658111</v>
+        <v>1349805.486133965</v>
       </c>
       <c r="H47" t="n">
-        <v>2529140.987487012</v>
+        <v>1381085.737870148</v>
       </c>
       <c r="I47" t="n">
-        <v>2649607.689218635</v>
+        <v>1343235.210177457</v>
       </c>
       <c r="J47" t="n">
-        <v>2805663.855004798</v>
+        <v>1549325.726220689</v>
       </c>
       <c r="K47" t="n">
-        <v>2943253.126871307</v>
+        <v>1704642.870314029</v>
       </c>
       <c r="L47" t="n">
-        <v>2979457.456645682</v>
+        <v>1588262.24663915</v>
       </c>
       <c r="M47" t="n">
-        <v>3189077.848573441</v>
+        <v>1670067.851080085</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>707655.4303494031</v>
+        <v>5217188.600565366</v>
       </c>
       <c r="C48" t="n">
-        <v>708644.3596250364</v>
+        <v>5742535.987582196</v>
       </c>
       <c r="D48" t="n">
-        <v>717298.5850251551</v>
+        <v>5844610.684229314</v>
       </c>
       <c r="E48" t="n">
-        <v>727117.0991188934</v>
+        <v>5594293.023152624</v>
       </c>
       <c r="F48" t="n">
-        <v>749658.2787998127</v>
+        <v>5947378.301584612</v>
       </c>
       <c r="G48" t="n">
-        <v>1122934.679799944</v>
+        <v>5659677.956190269</v>
       </c>
       <c r="H48" t="n">
-        <v>818826.6249567685</v>
+        <v>6047411.486687995</v>
       </c>
       <c r="I48" t="n">
-        <v>847127.8411787436</v>
+        <v>5933400.19795155</v>
       </c>
       <c r="J48" t="n">
-        <v>784343.7577347739</v>
+        <v>5958976.309087859</v>
       </c>
       <c r="K48" t="n">
-        <v>971793.0062161719</v>
+        <v>6309665.198520107</v>
       </c>
       <c r="L48" t="n">
-        <v>863381.6027659252</v>
+        <v>6246001.989328442</v>
       </c>
       <c r="M48" t="n">
-        <v>801988.5465227625</v>
+        <v>6196401.612786003</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>592083.5110994196</v>
+        <v>607578.9381926723</v>
       </c>
       <c r="C49" t="n">
-        <v>565443.3534727541</v>
+        <v>708983.2060621947</v>
       </c>
       <c r="D49" t="n">
-        <v>748757.2599344321</v>
+        <v>536930.9005691931</v>
       </c>
       <c r="E49" t="n">
-        <v>846024.2226739936</v>
+        <v>561236.0365708431</v>
       </c>
       <c r="F49" t="n">
-        <v>935638.3170653019</v>
+        <v>605488.4954654026</v>
       </c>
       <c r="G49" t="n">
-        <v>895610.1316784439</v>
+        <v>498333.2123831133</v>
       </c>
       <c r="H49" t="n">
-        <v>542443.1608390762</v>
+        <v>675770.4783994096</v>
       </c>
       <c r="I49" t="n">
-        <v>785153.2456721583</v>
+        <v>847799.7116473787</v>
       </c>
       <c r="J49" t="n">
-        <v>816381.2179633715</v>
+        <v>881429.9758683504</v>
       </c>
       <c r="K49" t="n">
-        <v>845272.866122809</v>
+        <v>738331.0673145696</v>
       </c>
       <c r="L49" t="n">
-        <v>648237.5204917288</v>
+        <v>694054.6462424222</v>
       </c>
       <c r="M49" t="n">
-        <v>640087.0278019704</v>
+        <v>771333.6933243087</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1601291.58122189</v>
+        <v>2970091.03323962</v>
       </c>
       <c r="C50" t="n">
-        <v>1609991.79276954</v>
+        <v>2954295.783325229</v>
       </c>
       <c r="D50" t="n">
-        <v>1881952.05611169</v>
+        <v>2948833.965956509</v>
       </c>
       <c r="E50" t="n">
-        <v>1880170.253617818</v>
+        <v>3070740.679745345</v>
       </c>
       <c r="F50" t="n">
-        <v>1753388.795485588</v>
+        <v>3236483.700433351</v>
       </c>
       <c r="G50" t="n">
-        <v>1921080.612689366</v>
+        <v>2994170.118917069</v>
       </c>
       <c r="H50" t="n">
-        <v>1704363.702183466</v>
+        <v>3166433.021111131</v>
       </c>
       <c r="I50" t="n">
-        <v>1760309.008097538</v>
+        <v>3312737.730864971</v>
       </c>
       <c r="J50" t="n">
-        <v>1898843.046885469</v>
+        <v>3435380.38762691</v>
       </c>
       <c r="K50" t="n">
-        <v>2057736.044877742</v>
+        <v>3714111.970930457</v>
       </c>
       <c r="L50" t="n">
-        <v>1893162.348035003</v>
+        <v>3861924.063115881</v>
       </c>
       <c r="M50" t="n">
-        <v>2051245.38756051</v>
+        <v>3886047.76668334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2527992.66871941</v>
+        <v>2968026.28604496</v>
       </c>
       <c r="C51" t="n">
-        <v>2462688.89269373</v>
+        <v>3168731.750942297</v>
       </c>
       <c r="D51" t="n">
-        <v>2350249.085577354</v>
+        <v>3217768.115048508</v>
       </c>
       <c r="E51" t="n">
-        <v>2327850.06764076</v>
+        <v>3281781.009936708</v>
       </c>
       <c r="F51" t="n">
-        <v>2171880.458734315</v>
+        <v>3279936.402779733</v>
       </c>
       <c r="G51" t="n">
-        <v>2283516.153456275</v>
+        <v>3145696.712246239</v>
       </c>
       <c r="H51" t="n">
-        <v>2109165.866420841</v>
+        <v>3417443.201704749</v>
       </c>
       <c r="I51" t="n">
-        <v>2296612.225398294</v>
+        <v>3408425.59845932</v>
       </c>
       <c r="J51" t="n">
-        <v>2320875.876622681</v>
+        <v>3747392.638645509</v>
       </c>
       <c r="K51" t="n">
-        <v>2241685.908435751</v>
+        <v>3725082.875491948</v>
       </c>
       <c r="L51" t="n">
-        <v>2316544.623325705</v>
+        <v>3838273.214805988</v>
       </c>
       <c r="M51" t="n">
-        <v>2725463.049748182</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>3068283.565191915</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3757242.216382948</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2872896.885884226</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3882343.224731083</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3167596.94844771</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3672217.200231508</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3289740.627684192</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3413571.845918384</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3579012.214626898</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3759333.510987789</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3722948.584515381</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3925976.489456741</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1402413.416093686</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1290911.53551198</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1445041.256126901</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1608962.405089956</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1362519.819091855</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1309021.960089101</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1210257.632782547</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1435900.084479465</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1496443.451118068</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1262939.313654423</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1168053.873427892</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1192736.342079754</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1726605.313730186</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1433940.134800571</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1454921.030939064</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1680011.579196053</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1326716.242439297</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1435027.386321974</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1513626.003048988</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1674817.151685227</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1722081.219634675</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1656182.239164494</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1706400.579475984</v>
-      </c>
-      <c r="M54" t="n">
-        <v>2029650.738504069</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>4605008.815571969</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4820974.523045326</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4249800.025212991</v>
-      </c>
-      <c r="E55" t="n">
-        <v>5023477.017645284</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4514333.568305207</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3954991.387326416</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3399308.067053855</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3723279.64067692</v>
-      </c>
-      <c r="J55" t="n">
-        <v>5056148.868356165</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4109926.494594454</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3729670.233051238</v>
-      </c>
-      <c r="M55" t="n">
-        <v>4748461.204049686</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3917175.869286911</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3812313.045561536</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4407644.773022444</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4244894.128424167</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3722406.378199303</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4343420.516336166</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3698277.757421088</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4018003.573576077</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3733765.793897362</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3961225.22283844</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4435187.36946824</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4340713.574519114</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5657533.912706178</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5475120.337218289</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5648633.96011736</v>
-      </c>
-      <c r="E57" t="n">
-        <v>6370932.508913337</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5296159.127969459</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5399079.136303655</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5142724.129078683</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5579793.747754957</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5789452.676011893</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6206994.596594915</v>
-      </c>
-      <c r="L57" t="n">
-        <v>6480081.146351277</v>
-      </c>
-      <c r="M57" t="n">
-        <v>6658294.306856348</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5135286.52577575</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5594844.980403896</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5462101.505178549</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5813549.422559536</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5467536.159669326</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5801605.72712903</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5000946.634698937</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5444644.24483809</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5666531.800558439</v>
-      </c>
-      <c r="K58" t="n">
-        <v>6069571.604378176</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5729257.854085377</v>
-      </c>
-      <c r="M58" t="n">
-        <v>6234015.377594104</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3256400.217362308</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3152492.988388516</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3379702.737261103</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3506787.994054124</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2962535.340892017</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3636964.542136521</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2691019.091428057</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2970434.92844014</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3266579.026013266</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3344295.917760697</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3099144.262519788</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3364861.702805558</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4135632.210616076</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4434051.986194381</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4937574.699847572</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4750030.362222008</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4566595.486416829</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4438617.944454798</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3592384.859460844</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3979555.69622025</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4300737.710882398</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4221133.775435485</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4064780.615814791</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4329640.872539003</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>3317065.49531645</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3389666.082744597</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3446296.366943385</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3486602.439656273</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3634456.692952494</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3886355.203123052</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3175247.212261437</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2956926.265494349</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3713495.599420061</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3418553.529354915</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3527907.425956587</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3856603.995204349</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>6644921.34877055</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5673773.772220274</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6889042.093089309</v>
-      </c>
-      <c r="E62" t="n">
-        <v>6252804.050493553</v>
-      </c>
-      <c r="F62" t="n">
-        <v>6166907.655208752</v>
-      </c>
-      <c r="G62" t="n">
-        <v>7151239.175855629</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5295487.104329785</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6067485.507579861</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6864078.779833846</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6101299.716918584</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5739693.80665681</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6608639.970173188</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3523716.516710023</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3486962.575117234</v>
-      </c>
-      <c r="D63" t="n">
-        <v>4068485.053811369</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3445952.344922834</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3560208.908730217</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3743494.01833151</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3244009.795146925</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3504390.834556689</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3810335.943716941</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3804511.4860574</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3557885.963351792</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3739948.502428882</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2223677.545638025</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2261517.409014594</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2486877.642230461</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2554722.408587346</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1884010.957135186</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2216278.44312869</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1888456.656069624</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2230656.16636302</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2598909.665590118</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2098675.735955931</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2337345.325664366</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2236135.14866193</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1757331.908389643</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1670438.792301019</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1650581.036782864</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1675705.132269223</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1443384.307018188</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1401471.500225805</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1508380.916543432</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1470254.584946028</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1432386.043594518</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1638485.906116722</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1793812.537588402</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1677482.775541774</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4829311.734040693</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5004563.569642434</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5524901.129634781</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5621964.500603464</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5366634.499348124</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5714706.75084475</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5204170.16173094</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5804684.470581508</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5685668.262979197</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5706236.370615486</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6051915.168547347</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5983283.679091835</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>676823.6203344957</v>
-      </c>
-      <c r="C67" t="n">
-        <v>645046.3466849349</v>
-      </c>
-      <c r="D67" t="n">
-        <v>740918.7810101132</v>
-      </c>
-      <c r="E67" t="n">
-        <v>563334.5337281383</v>
-      </c>
-      <c r="F67" t="n">
-        <v>582106.4789874511</v>
-      </c>
-      <c r="G67" t="n">
-        <v>620826.4644270445</v>
-      </c>
-      <c r="H67" t="n">
-        <v>569841.136036486</v>
-      </c>
-      <c r="I67" t="n">
-        <v>680058.1554283766</v>
-      </c>
-      <c r="J67" t="n">
-        <v>846546.4919565435</v>
-      </c>
-      <c r="K67" t="n">
-        <v>874640.3560446267</v>
-      </c>
-      <c r="L67" t="n">
-        <v>726007.5102289551</v>
-      </c>
-      <c r="M67" t="n">
-        <v>676182.8643151039</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2926733.858439055</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3075736.387784538</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3080107.584731705</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3094812.292817487</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3236885.584161492</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3422795.293296881</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3322824.790298669</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3393093.317095361</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3559563.081609265</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3702370.708097527</v>
-      </c>
-      <c r="L68" t="n">
-        <v>4001267.170919167</v>
-      </c>
-      <c r="M68" t="n">
-        <v>4169209.832208639</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3051400.808166671</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3205187.085745679</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3435951.814460568</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3515046.002064855</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3609116.914737895</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3637329.717986885</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3676068.046956893</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3835004.792169973</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3855998.15888874</v>
-      </c>
-      <c r="K69" t="n">
-        <v>4225016.750887833</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4232762.444546821</v>
-      </c>
-      <c r="M69" t="n">
-        <v>4376044.446022451</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>8334152.799869383</v>
-      </c>
-      <c r="C70" t="n">
-        <v>8928886.895640247</v>
-      </c>
-      <c r="D70" t="n">
-        <v>10664626.85956169</v>
-      </c>
-      <c r="E70" t="n">
-        <v>11975116.20614582</v>
-      </c>
-      <c r="F70" t="n">
-        <v>13038354.89175763</v>
-      </c>
-      <c r="G70" t="n">
-        <v>14395261.43562587</v>
-      </c>
-      <c r="H70" t="n">
-        <v>15019633.07696777</v>
-      </c>
-      <c r="I70" t="n">
-        <v>16056323.50189482</v>
-      </c>
-      <c r="J70" t="n">
-        <v>16951693.16462408</v>
-      </c>
-      <c r="K70" t="n">
-        <v>18720939.97452013</v>
-      </c>
-      <c r="L70" t="n">
-        <v>19696413.96563689</v>
-      </c>
-      <c r="M70" t="n">
-        <v>20769416.68624824</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>19220486.35158417</v>
-      </c>
-      <c r="C71" t="n">
-        <v>20487097.5979244</v>
-      </c>
-      <c r="D71" t="n">
-        <v>21846957.40329355</v>
-      </c>
-      <c r="E71" t="n">
-        <v>22143544.19672254</v>
-      </c>
-      <c r="F71" t="n">
-        <v>24280203.10774123</v>
-      </c>
-      <c r="G71" t="n">
-        <v>35973728.37467498</v>
-      </c>
-      <c r="H71" t="n">
-        <v>18054832.51389187</v>
-      </c>
-      <c r="I71" t="n">
-        <v>26699065.77581083</v>
-      </c>
-      <c r="J71" t="n">
-        <v>27308683.18739154</v>
-      </c>
-      <c r="K71" t="n">
-        <v>27141215.86488288</v>
-      </c>
-      <c r="L71" t="n">
-        <v>27089735.13141144</v>
-      </c>
-      <c r="M71" t="n">
-        <v>28848943.1088055</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>3896046.392718818</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2912995.933785433</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4368609.004174264</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2126811.90139899</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4859636.957435713</v>
-      </c>
-      <c r="G72" t="n">
-        <v>2850435.323938238</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2726940.173896896</v>
-      </c>
-      <c r="I72" t="n">
-        <v>5425204.344865577</v>
-      </c>
-      <c r="J72" t="n">
-        <v>6181103.499326348</v>
-      </c>
-      <c r="K72" t="n">
-        <v>4530397.365352865</v>
-      </c>
-      <c r="L72" t="n">
-        <v>5342837.420754961</v>
-      </c>
-      <c r="M72" t="n">
-        <v>3346311.53138526</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>10861761.15258333</v>
-      </c>
-      <c r="C73" t="n">
-        <v>11815714.40213776</v>
-      </c>
-      <c r="D73" t="n">
-        <v>12593672.2647402</v>
-      </c>
-      <c r="E73" t="n">
-        <v>14445192.59970288</v>
-      </c>
-      <c r="F73" t="n">
-        <v>14215693.15578094</v>
-      </c>
-      <c r="G73" t="n">
-        <v>15960508.52308237</v>
-      </c>
-      <c r="H73" t="n">
-        <v>17178211.67919342</v>
-      </c>
-      <c r="I73" t="n">
-        <v>19599233.08197814</v>
-      </c>
-      <c r="J73" t="n">
-        <v>21800833.40058529</v>
-      </c>
-      <c r="K73" t="n">
-        <v>21951498.88796204</v>
-      </c>
-      <c r="L73" t="n">
-        <v>22201636.64856362</v>
-      </c>
-      <c r="M73" t="n">
-        <v>23320656.40928574</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>19992256.19314587</v>
-      </c>
-      <c r="C74" t="n">
-        <v>17121352.6590012</v>
-      </c>
-      <c r="D74" t="n">
-        <v>19847218.99403676</v>
-      </c>
-      <c r="E74" t="n">
-        <v>19826419.57100383</v>
-      </c>
-      <c r="F74" t="n">
-        <v>21541633.88065656</v>
-      </c>
-      <c r="G74" t="n">
-        <v>27226191.37686509</v>
-      </c>
-      <c r="H74" t="n">
-        <v>16203170.74078476</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21253257.98888264</v>
-      </c>
-      <c r="J74" t="n">
-        <v>24773955.75314916</v>
-      </c>
-      <c r="K74" t="n">
-        <v>22893970.00382068</v>
-      </c>
-      <c r="L74" t="n">
-        <v>20887446.10690486</v>
-      </c>
-      <c r="M74" t="n">
-        <v>22235748.58302045</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>24694678.00372618</v>
-      </c>
-      <c r="C75" t="n">
-        <v>26006019.1883988</v>
-      </c>
-      <c r="D75" t="n">
-        <v>25094419.07252783</v>
-      </c>
-      <c r="E75" t="n">
-        <v>25538696.289904</v>
-      </c>
-      <c r="F75" t="n">
-        <v>26213560.64112889</v>
-      </c>
-      <c r="G75" t="n">
-        <v>35075935.15423002</v>
-      </c>
-      <c r="H75" t="n">
-        <v>26416519.33104337</v>
-      </c>
-      <c r="I75" t="n">
-        <v>29945756.35517392</v>
-      </c>
-      <c r="J75" t="n">
-        <v>30914897.27508651</v>
-      </c>
-      <c r="K75" t="n">
-        <v>32813084.81382475</v>
-      </c>
-      <c r="L75" t="n">
-        <v>31927485.29354674</v>
-      </c>
-      <c r="M75" t="n">
-        <v>34376980.89215443</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>15814522.54188744</v>
-      </c>
-      <c r="C76" t="n">
-        <v>17481190.2364629</v>
-      </c>
-      <c r="D76" t="n">
-        <v>19217087.85657605</v>
-      </c>
-      <c r="E76" t="n">
-        <v>20980746.19938421</v>
-      </c>
-      <c r="F76" t="n">
-        <v>22577600.86754118</v>
-      </c>
-      <c r="G76" t="n">
-        <v>25031349.55900519</v>
-      </c>
-      <c r="H76" t="n">
-        <v>26074837.2711436</v>
-      </c>
-      <c r="I76" t="n">
-        <v>28166606.96128903</v>
-      </c>
-      <c r="J76" t="n">
-        <v>30449132.98893071</v>
-      </c>
-      <c r="K76" t="n">
-        <v>32443065.18986785</v>
-      </c>
-      <c r="L76" t="n">
-        <v>34347466.1042252</v>
-      </c>
-      <c r="M76" t="n">
-        <v>35544151.55195085</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>18068439.34092794</v>
-      </c>
-      <c r="C77" t="n">
-        <v>19213308.56227004</v>
-      </c>
-      <c r="D77" t="n">
-        <v>21056169.2681562</v>
-      </c>
-      <c r="E77" t="n">
-        <v>23126947.36134624</v>
-      </c>
-      <c r="F77" t="n">
-        <v>24162663.31456208</v>
-      </c>
-      <c r="G77" t="n">
-        <v>23715201.96513119</v>
-      </c>
-      <c r="H77" t="n">
-        <v>24785559.64913777</v>
-      </c>
-      <c r="I77" t="n">
-        <v>25789747.93394411</v>
-      </c>
-      <c r="J77" t="n">
-        <v>26720305.48426143</v>
-      </c>
-      <c r="K77" t="n">
-        <v>27677821.68527532</v>
-      </c>
-      <c r="L77" t="n">
-        <v>28668599.83185327</v>
-      </c>
-      <c r="M77" t="n">
-        <v>29664285.15861482</v>
+        <v>3911469.548058885</v>
       </c>
     </row>
   </sheetData>
